--- a/Test Data Per Error Type - Joey Tagged.xlsx
+++ b/Test Data Per Error Type - Joey Tagged.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1096">
   <si>
     <t>Insertion</t>
   </si>
@@ -8650,13 +8650,16 @@
   </si>
   <si>
     <t>Bahagi na ng moderno Olympic nungg una panahon ang ligsa ng sining .</t>
+  </si>
+  <si>
+    <t>puting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8981,6 +8984,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9015,6 +9019,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9190,14 +9195,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
@@ -9208,7 +9213,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63">
+    <row r="1" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>480</v>
       </c>
@@ -9264,7 +9269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>481</v>
       </c>
@@ -9291,7 +9296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>482</v>
       </c>
@@ -9318,7 +9323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>483</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>484</v>
       </c>
@@ -9372,7 +9377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>485</v>
       </c>
@@ -9399,7 +9404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>492</v>
       </c>
@@ -9426,7 +9431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>491</v>
       </c>
@@ -9453,7 +9458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>495</v>
       </c>
@@ -9480,7 +9485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>674</v>
       </c>
@@ -9507,7 +9512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>496</v>
       </c>
@@ -9534,7 +9539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9555,7 +9560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>502</v>
       </c>
@@ -9582,7 +9587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>503</v>
       </c>
@@ -9609,7 +9614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9630,7 +9635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>504</v>
       </c>
@@ -9684,7 +9689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>505</v>
       </c>
@@ -9711,7 +9716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>508</v>
       </c>
@@ -9738,7 +9743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -9759,7 +9764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>509</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9807,7 +9812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -9828,7 +9833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>511</v>
       </c>
@@ -9855,7 +9860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>513</v>
       </c>
@@ -9882,7 +9887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>514</v>
       </c>
@@ -9909,7 +9914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>515</v>
       </c>
@@ -9936,7 +9941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>516</v>
       </c>
@@ -9963,7 +9968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>517</v>
       </c>
@@ -9990,7 +9995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>518</v>
       </c>
@@ -10017,7 +10022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>531</v>
       </c>
@@ -10044,7 +10049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="45">
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>523</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10090,7 +10095,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:14" ht="75">
+    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>561</v>
       </c>
@@ -10117,7 +10122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="75">
+    <row r="36" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>561</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30">
+    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -10165,7 +10170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="45">
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>532</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -10211,7 +10216,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:14" ht="45">
+    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>520</v>
       </c>
@@ -10238,7 +10243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -10257,7 +10262,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -10274,7 +10279,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -10289,7 +10294,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>519</v>
       </c>
@@ -10316,7 +10321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30">
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>535</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30">
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>536</v>
       </c>
@@ -10375,7 +10380,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -10399,7 +10404,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -10417,7 +10422,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -10441,7 +10446,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>537</v>
       </c>
@@ -10468,7 +10473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30">
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>701</v>
       </c>
@@ -10495,7 +10500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -10516,7 +10521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="45">
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>556</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -10562,7 +10567,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -10581,7 +10586,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>521</v>
       </c>
@@ -10608,7 +10613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>522</v>
       </c>
@@ -10642,16 +10647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="103.140625" customWidth="1"/>
+    <col min="2" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
@@ -10661,7 +10667,7 @@
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -10690,8 +10696,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>571</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10722,8 +10728,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>572</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10754,8 +10760,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>573</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -10784,8 +10790,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>574</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -10811,8 +10817,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -10830,8 +10836,8 @@
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>575</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -10857,8 +10863,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>576</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -10884,8 +10890,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>577</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10911,8 +10917,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>710</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -10938,8 +10944,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>713</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -10965,8 +10971,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>715</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10992,8 +10998,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>588</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -11019,7 +11025,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>589</v>
       </c>
@@ -11046,8 +11052,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>599</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -11078,8 +11084,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -11110,8 +11116,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>604</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -11142,8 +11148,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>605</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -11174,8 +11180,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>606</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -11206,8 +11212,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
@@ -11226,8 +11232,8 @@
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="12" t="s">
@@ -11246,8 +11252,8 @@
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>593</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -11278,8 +11284,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
       <c r="B23" s="31"/>
       <c r="C23" s="1"/>
       <c r="D23" s="12" t="s">
@@ -11304,8 +11310,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>596</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -11336,8 +11342,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>597</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -11368,8 +11374,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>598</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -11400,8 +11406,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>611</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -11432,8 +11438,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="12" t="s">
@@ -11452,7 +11458,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>607</v>
       </c>
@@ -11484,8 +11490,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="60">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>631</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -11516,8 +11522,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>628</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -11548,8 +11554,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
       <c r="B32" s="31"/>
       <c r="C32" s="1"/>
       <c r="D32" s="12" t="s">
@@ -11574,8 +11580,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
       <c r="B33" s="31"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12" t="s">
@@ -11600,8 +11606,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>620</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -11632,8 +11638,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>622</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -11664,8 +11670,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="45">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>616</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -11696,7 +11702,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>615</v>
       </c>
@@ -11728,8 +11734,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>617</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -11760,8 +11766,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>618</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -11792,8 +11798,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="60">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>619</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -11822,8 +11828,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="45">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>632</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -11852,8 +11858,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="45">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>635</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -11882,7 +11888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="32"/>
       <c r="C43" s="19"/>
@@ -11906,8 +11912,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
       <c r="B44" s="31"/>
       <c r="C44" s="1"/>
       <c r="D44" s="12" t="s">
@@ -11930,7 +11936,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>638</v>
       </c>
@@ -11964,8 +11970,8 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="60">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>657</v>
       </c>
       <c r="B46" s="17" t="s">
@@ -11996,8 +12002,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="60">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>658</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -12028,8 +12034,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>637</v>
       </c>
       <c r="B48" t="s">
@@ -12060,8 +12066,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="45">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>654</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -12092,8 +12098,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="45">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>645</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -12124,8 +12130,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="21" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>641</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -12156,8 +12162,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>646</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -12188,8 +12194,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="45">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>648</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -12220,8 +12226,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="60">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>750</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -12252,8 +12258,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>224</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -12284,8 +12290,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>644</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -12313,8 +12319,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="60">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -12345,8 +12351,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="45">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>652</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -12377,8 +12383,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="45">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>666</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -12409,8 +12415,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>660</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -12441,7 +12447,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>663</v>
       </c>
@@ -12471,14 +12477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
@@ -12489,7 +12495,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>760</v>
       </c>
@@ -12547,7 +12553,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>798</v>
       </c>
@@ -12576,7 +12582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="24" t="s">
         <v>247</v>
       </c>
@@ -12596,7 +12602,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="24" t="s">
         <v>44</v>
       </c>
@@ -12616,7 +12622,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>802</v>
       </c>
@@ -12645,7 +12651,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>808</v>
       </c>
@@ -12674,7 +12680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24" t="s">
         <v>251</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>805</v>
       </c>
@@ -12723,7 +12729,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>806</v>
       </c>
@@ -12752,7 +12758,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>807</v>
       </c>
@@ -12781,7 +12787,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>811</v>
       </c>
@@ -12810,7 +12816,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="60">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>1016</v>
       </c>
@@ -12839,7 +12845,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="36"/>
       <c r="C14" s="24"/>
@@ -12862,7 +12868,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>263</v>
       </c>
@@ -12894,7 +12900,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="75">
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>814</v>
       </c>
@@ -12926,7 +12932,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>819</v>
       </c>
@@ -12958,7 +12964,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>824</v>
       </c>
@@ -12990,7 +12996,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>820</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>821</v>
       </c>
@@ -13054,7 +13060,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="24" t="s">
         <v>275</v>
       </c>
@@ -13077,7 +13083,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="36" t="s">
         <v>826</v>
       </c>
@@ -13098,7 +13104,7 @@
       </c>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="75">
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>846</v>
       </c>
@@ -13130,7 +13136,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60">
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>851</v>
       </c>
@@ -13162,7 +13168,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -13182,7 +13188,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="45">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>844</v>
       </c>
@@ -13214,7 +13220,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>845</v>
       </c>
@@ -13246,7 +13252,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>829</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>830</v>
       </c>
@@ -13310,7 +13316,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>835</v>
       </c>
@@ -13342,7 +13348,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60">
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>1032</v>
       </c>
@@ -13374,7 +13380,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>834</v>
       </c>
@@ -13406,7 +13412,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>1036</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>838</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>301</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45">
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>842</v>
       </c>
@@ -13534,7 +13540,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="60">
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>860</v>
       </c>
@@ -13566,7 +13572,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -13590,7 +13596,7 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>843</v>
       </c>
@@ -13622,7 +13628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45">
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>865</v>
       </c>
@@ -13654,7 +13660,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="75">
+    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>855</v>
       </c>
@@ -13686,7 +13692,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -13710,7 +13716,7 @@
       </c>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -13734,7 +13740,7 @@
       </c>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="45">
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>856</v>
       </c>
@@ -13766,7 +13772,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -13790,7 +13796,7 @@
       </c>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="45">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>857</v>
       </c>
@@ -13822,7 +13828,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -13846,7 +13852,7 @@
       </c>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="60">
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>888</v>
       </c>
@@ -13878,7 +13884,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30">
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>886</v>
       </c>
@@ -13914,7 +13920,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="45">
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>887</v>
       </c>
@@ -13946,7 +13952,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="75">
+    <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>889</v>
       </c>
@@ -13978,7 +13984,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -14002,7 +14008,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="45">
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>890</v>
       </c>
@@ -14034,7 +14040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30">
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="24" t="s">
@@ -14059,7 +14065,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30">
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>878</v>
       </c>
@@ -14091,7 +14097,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="60">
+    <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
         <v>879</v>
       </c>
@@ -14123,7 +14129,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="45">
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
         <v>880</v>
       </c>
@@ -14155,7 +14161,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="45">
+    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>881</v>
       </c>
@@ -14187,7 +14193,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="45">
+    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -14213,7 +14219,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="45">
+    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -14239,7 +14245,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="45">
+    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
         <v>898</v>
       </c>
@@ -14271,7 +14277,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30">
+    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>919</v>
       </c>
@@ -14303,7 +14309,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30">
+    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
         <v>899</v>
       </c>
@@ -14335,7 +14341,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="45">
+    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>900</v>
       </c>
@@ -14367,7 +14373,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="75">
+    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
         <v>925</v>
       </c>
@@ -14399,7 +14405,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="45">
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>901</v>
       </c>
@@ -14431,7 +14437,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="45">
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
         <v>902</v>
       </c>
@@ -14463,7 +14469,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45">
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
         <v>904</v>
       </c>
@@ -14495,7 +14501,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45">
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
         <v>927</v>
       </c>
@@ -14527,7 +14533,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="60">
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
         <v>928</v>
       </c>
@@ -14559,7 +14565,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="105">
+    <row r="71" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
         <v>930</v>
       </c>
@@ -14591,7 +14597,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="45">
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>906</v>
       </c>
@@ -14623,7 +14629,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="45">
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
         <v>907</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="45">
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
         <v>909</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="45">
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="D75" s="24" t="s">
         <v>380</v>
       </c>
@@ -14710,7 +14716,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="45">
+    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>915</v>
       </c>
@@ -14742,7 +14748,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45">
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -14768,7 +14774,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -14792,7 +14798,7 @@
       </c>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -14816,7 +14822,7 @@
       </c>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="45">
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
         <v>933</v>
       </c>
@@ -14848,7 +14854,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45">
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
         <v>932</v>
       </c>
@@ -14880,7 +14886,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="45">
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
         <v>958</v>
       </c>
@@ -14912,7 +14918,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="30">
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
         <v>934</v>
       </c>
@@ -14944,7 +14950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="30">
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
         <v>956</v>
       </c>
@@ -14976,7 +14982,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
         <v>940</v>
       </c>
@@ -15008,7 +15014,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
         <v>936</v>
       </c>
@@ -15040,7 +15046,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30">
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
         <v>935</v>
       </c>
@@ -15072,7 +15078,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="45">
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
         <v>944</v>
       </c>
@@ -15104,7 +15110,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
         <v>941</v>
       </c>
@@ -15136,7 +15142,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30">
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -15162,7 +15168,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45">
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
         <v>970</v>
       </c>
@@ -15194,7 +15200,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -15218,7 +15224,7 @@
       </c>
       <c r="J92" s="24"/>
     </row>
-    <row r="93" spans="1:10" ht="30">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
         <v>946</v>
       </c>
@@ -15250,7 +15256,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="36"/>
       <c r="C94" s="24"/>
@@ -15274,7 +15280,7 @@
       </c>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" ht="30">
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>950</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30">
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>953</v>
       </c>
@@ -15338,7 +15344,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45">
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>961</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="45">
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>966</v>
       </c>
@@ -15402,7 +15408,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="45">
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>971</v>
       </c>
@@ -15434,7 +15440,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45">
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>965</v>
       </c>
@@ -15466,7 +15472,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30">
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>964</v>
       </c>
@@ -15498,7 +15504,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="30">
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>963</v>
       </c>
@@ -15530,7 +15536,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30">
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>962</v>
       </c>
@@ -15562,7 +15568,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="60">
+    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
         <v>969</v>
       </c>
@@ -15594,7 +15600,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="60">
+    <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>979</v>
       </c>
@@ -15626,7 +15632,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="75">
+    <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
         <v>978</v>
       </c>
@@ -15658,7 +15664,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="60">
+    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>980</v>
       </c>
@@ -15690,7 +15696,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -15714,7 +15720,7 @@
       </c>
       <c r="J108" s="24"/>
     </row>
-    <row r="109" spans="1:10" ht="60">
+    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
         <v>981</v>
       </c>
@@ -15746,7 +15752,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="60">
+    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
         <v>982</v>
       </c>
@@ -15785,14 +15791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="59.85546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
@@ -15804,7 +15810,7 @@
     <col min="10" max="10" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42">
+    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -15833,7 +15839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75">
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>993</v>
       </c>
@@ -15860,7 +15866,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90">
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>995</v>
       </c>
@@ -15887,7 +15893,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90">
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>713</v>
       </c>
@@ -15914,7 +15920,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>762</v>
       </c>
@@ -15941,7 +15947,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="63">
+    <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>763</v>
       </c>
@@ -15971,7 +15977,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63">
+    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>764</v>
       </c>
@@ -16001,7 +16007,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="63">
+    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>1001</v>
       </c>
@@ -16031,7 +16037,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>765</v>
       </c>
@@ -16061,7 +16067,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -16069,7 +16075,7 @@
         <v>779</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>779</v>
+        <v>1095</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -16081,7 +16087,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="47.25">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>780</v>
       </c>
@@ -16111,7 +16117,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -16131,7 +16137,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -16151,7 +16157,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10" ht="31.5">
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>766</v>
       </c>
@@ -16181,7 +16187,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5">
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>767</v>
       </c>
@@ -16211,7 +16217,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>768</v>
       </c>
@@ -16241,7 +16247,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="94.5">
+    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>796</v>
       </c>
@@ -16271,7 +16277,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>769</v>
       </c>
@@ -16301,7 +16307,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>770</v>
       </c>
@@ -16331,7 +16337,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="78.75">
+    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>795</v>
       </c>
@@ -16361,7 +16367,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16372,7 +16378,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -16383,7 +16389,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -16394,7 +16400,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -16405,7 +16411,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -16416,7 +16422,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -16427,7 +16433,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -16438,7 +16444,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -16449,7 +16455,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16460,7 +16466,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16471,7 +16477,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16482,7 +16488,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -16493,7 +16499,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16504,7 +16510,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -16515,7 +16521,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -16526,7 +16532,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -16537,7 +16543,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16548,7 +16554,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -16559,7 +16565,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -16570,7 +16576,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -16581,7 +16587,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -16592,7 +16598,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -16603,7 +16609,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -16614,7 +16620,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -16625,7 +16631,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -16636,7 +16642,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -16647,7 +16653,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -16658,7 +16664,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -16669,7 +16675,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -16680,7 +16686,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>

--- a/Test Data Per Error Type - Joey Tagged.xlsx
+++ b/Test Data Per Error Type - Joey Tagged.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1091">
   <si>
     <t>Insertion</t>
   </si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>pamprobinsiya</t>
-  </si>
-  <si>
-    <t>sumisikap</t>
-  </si>
-  <si>
-    <t>nagsisikap</t>
   </si>
   <si>
     <t>sinedad</t>
@@ -1825,16 +1819,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">RBW RBL </t>
-  </si>
-  <si>
     <t>Alam ko na ang mahalagang bahagi ng paggaling ay ang pakasulong ng malusog na pondo ng diwa .</t>
   </si>
   <si>
     <t>Natutunan ko na harapin ang buhay ng mayroong malupit na pagtitiis upang makapaghanda sa mga kahirapang paniguradong darating na akong makakasagupa .</t>
-  </si>
-  <si>
-    <t>Habang nasa palaruan , pinagmamasdan ko ang isang apat na taong gulang na sumisikap akyatin ang poste .</t>
   </si>
   <si>
     <t>Nung sinedad ko siya , ako'y madaling magtampo .</t>
@@ -4498,9 +4486,6 @@
   </si>
   <si>
     <t>Nung sinedad ko siya , ako_ay dali tampo .</t>
-  </si>
-  <si>
-    <t>Habang nasa laro , masid ko ang isang apat na taon gulang na sikap akyat ang poste .</t>
   </si>
   <si>
     <t>Ang sugat na bata sa aking loob ay nais kubli sa alinman sa dalawa ; sa tigas na tungkol ng sutil na lalake na hindi kailangan ng tao o kaya_ay sa asa tungkol , ng hina na biktima .</t>
@@ -9196,10 +9181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,10 +9203,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -9244,13 +9229,13 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -9271,13 +9256,13 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -9298,13 +9283,13 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -9325,13 +9310,13 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -9352,13 +9337,13 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -9379,13 +9364,13 @@
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -9406,13 +9391,13 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -9433,13 +9418,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -9460,13 +9445,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
@@ -9487,13 +9472,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -9514,13 +9499,13 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
@@ -9562,13 +9547,13 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
@@ -9589,13 +9574,13 @@
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -9640,10 +9625,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9664,13 +9649,13 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
@@ -9681,7 +9666,7 @@
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="6"/>
@@ -9689,15 +9674,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>53</v>
@@ -9705,27 +9690,21 @@
       <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>683</v>
-      </c>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
@@ -9744,9 +9723,15 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
@@ -9754,10 +9739,10 @@
         <v>58</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5" t="s">
@@ -9765,15 +9750,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>684</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
         <v>59</v>
       </c>
@@ -9781,10 +9760,10 @@
         <v>60</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5" t="s">
@@ -9802,10 +9781,10 @@
         <v>62</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
@@ -9813,20 +9792,26 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
+      <c r="A24" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5" t="s">
@@ -9835,25 +9820,25 @@
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>43</v>
+        <v>681</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5" t="s">
@@ -9862,13 +9847,13 @@
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>66</v>
@@ -9876,11 +9861,11 @@
       <c r="E26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>27</v>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
@@ -9889,13 +9874,13 @@
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>68</v>
@@ -9916,13 +9901,13 @@
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>70</v>
@@ -9943,25 +9928,25 @@
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5" t="s">
@@ -9970,40 +9955,40 @@
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>74</v>
@@ -10024,13 +10009,13 @@
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>76</v>
@@ -10038,72 +10023,72 @@
       <c r="E32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>28</v>
+      <c r="F32" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>693</v>
-      </c>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5" t="s">
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>80</v>
@@ -10111,27 +10096,21 @@
       <c r="E35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>15</v>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>694</v>
-      </c>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1" t="s">
         <v>82</v>
       </c>
@@ -10142,122 +10121,118 @@
         <v>28</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="1" t="s">
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>695</v>
-      </c>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6" t="s">
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>696</v>
-      </c>
+      <c r="I39" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>88</v>
+        <v>536</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>89</v>
+        <v>537</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>534</v>
+        <v>63</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
@@ -10267,42 +10242,52 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>543</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>692</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G43" s="5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>697</v>
+      <c r="I43" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>693</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>91</v>
@@ -10311,69 +10296,66 @@
         <v>92</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>699</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>97</v>
+        <v>544</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="I46" s="5"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -10385,17 +10367,11 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="5"/>
       <c r="J47" s="3"/>
@@ -10409,11 +10385,17 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+        <v>546</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="5"/>
       <c r="J48" s="3"/>
@@ -10422,39 +10404,42 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>695</v>
+      </c>
       <c r="D49" s="6" t="s">
-        <v>550</v>
+        <v>96</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>551</v>
+        <v>97</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>700</v>
+      <c r="I49" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>697</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>98</v>
@@ -10463,26 +10448,20 @@
         <v>99</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>702</v>
-      </c>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
         <v>100</v>
       </c>
@@ -10493,151 +10472,130 @@
         <v>15</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>700</v>
+      </c>
       <c r="D52" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>15</v>
+      <c r="F52" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>705</v>
-      </c>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>104</v>
+        <v>553</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>105</v>
+        <v>554</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>558</v>
+        <v>99</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="D55" s="6" t="s">
-        <v>559</v>
+        <v>42</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>703</v>
+      <c r="I55" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>699</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -10650,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10672,10 +10630,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -10697,20 +10655,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>571</v>
+      <c r="A2" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -10719,30 +10677,30 @@
         <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
@@ -10751,30 +10709,30 @@
         <v>27</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>28</v>
@@ -10784,21 +10742,21 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>574</v>
+      <c r="A5" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -10810,19 +10768,19 @@
         <v>28</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -10831,53 +10789,53 @@
         <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>575</v>
+      <c r="A7" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -10887,24 +10845,24 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>577</v>
+      <c r="A9" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>28</v>
@@ -10914,24 +10872,24 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>710</v>
+      <c r="A10" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -10941,24 +10899,24 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>713</v>
+      <c r="A11" s="14" t="s">
+        <v>708</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -10968,24 +10926,24 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>715</v>
+      <c r="A12" s="15" t="s">
+        <v>710</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -10995,24 +10953,24 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>588</v>
+      <c r="A13" s="15" t="s">
+        <v>584</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
@@ -11022,51 +10980,51 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>589</v>
+      <c r="A14" s="15" t="s">
+        <v>585</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>599</v>
+      <c r="A15" s="14" t="s">
+        <v>595</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>28</v>
@@ -11075,126 +11033,126 @@
         <v>27</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="E16" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>604</v>
+      <c r="A17" s="14" t="s">
+        <v>600</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>605</v>
+      <c r="A18" s="17" t="s">
+        <v>601</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>606</v>
+      <c r="A19" s="17" t="s">
+        <v>602</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>28</v>
@@ -11203,24 +11161,24 @@
         <v>22</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>28</v>
@@ -11233,40 +11191,40 @@
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>593</v>
+      <c r="A22" s="17" t="s">
+        <v>589</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>28</v>
@@ -11275,24 +11233,24 @@
         <v>27</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="1"/>
       <c r="D23" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>28</v>
@@ -11301,30 +11259,30 @@
         <v>27</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>596</v>
+      <c r="A24" s="17" t="s">
+        <v>592</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>28</v>
@@ -11333,30 +11291,30 @@
         <v>22</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>597</v>
+      <c r="A25" s="17" t="s">
+        <v>593</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>28</v>
@@ -11365,30 +11323,30 @@
         <v>22</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>598</v>
+      <c r="A26" s="17" t="s">
+        <v>594</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>28</v>
@@ -11397,30 +11355,30 @@
         <v>27</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>611</v>
+      <c r="A27" s="17" t="s">
+        <v>607</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>28</v>
@@ -11429,24 +11387,24 @@
         <v>27</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
@@ -11459,20 +11417,20 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>607</v>
+      <c r="A29" s="17" t="s">
+        <v>603</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>28</v>
@@ -11481,30 +11439,30 @@
         <v>35</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>631</v>
+      <c r="A30" s="17" t="s">
+        <v>627</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>28</v>
@@ -11513,30 +11471,30 @@
         <v>27</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>628</v>
+      <c r="A31" s="17" t="s">
+        <v>624</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>15</v>
@@ -11545,146 +11503,146 @@
         <v>22</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="31"/>
       <c r="C32" s="1"/>
       <c r="D32" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="1"/>
       <c r="B33" s="31"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>620</v>
+      <c r="A34" s="17" t="s">
+        <v>616</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>622</v>
+      <c r="A35" s="17" t="s">
+        <v>618</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>616</v>
+      <c r="A36" s="17" t="s">
+        <v>612</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>15</v>
@@ -11693,30 +11651,30 @@
         <v>22</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>615</v>
+      <c r="A37" s="17" t="s">
+        <v>611</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>28</v>
@@ -11725,30 +11683,30 @@
         <v>22</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>617</v>
+      <c r="A38" s="17" t="s">
+        <v>613</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>28</v>
@@ -11757,30 +11715,30 @@
         <v>27</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>618</v>
+      <c r="A39" s="17" t="s">
+        <v>614</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>28</v>
@@ -11789,30 +11747,30 @@
         <v>27</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>619</v>
+      <c r="A40" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>28</v>
@@ -11822,27 +11780,27 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>632</v>
+      <c r="A41" s="14" t="s">
+        <v>628</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>15</v>
@@ -11852,27 +11810,27 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>635</v>
+      <c r="A42" s="14" t="s">
+        <v>631</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>28</v>
@@ -11882,21 +11840,21 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="32"/>
       <c r="C43" s="19"/>
       <c r="D43" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>28</v>
@@ -11906,21 +11864,21 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="31"/>
       <c r="C44" s="1"/>
       <c r="D44" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>28</v>
@@ -11930,27 +11888,27 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>638</v>
+      <c r="A45" s="14" t="s">
+        <v>634</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>28</v>
@@ -11960,10 +11918,10 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -11971,20 +11929,20 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>657</v>
+      <c r="A46" s="17" t="s">
+        <v>653</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>28</v>
@@ -11993,30 +11951,30 @@
         <v>22</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>658</v>
+      <c r="A47" s="9" t="s">
+        <v>654</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>28</v>
@@ -12025,30 +11983,30 @@
         <v>27</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>637</v>
+      <c r="A48" s="9" t="s">
+        <v>633</v>
       </c>
       <c r="B48" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C48" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>28</v>
@@ -12057,30 +12015,30 @@
         <v>27</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>654</v>
+      <c r="A49" s="13" t="s">
+        <v>650</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>28</v>
@@ -12089,30 +12047,30 @@
         <v>27</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>645</v>
+      <c r="A50" s="21" t="s">
+        <v>641</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>28</v>
@@ -12121,126 +12079,126 @@
         <v>22</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I50" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>214</v>
-      </c>
       <c r="E51" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>646</v>
+      <c r="A52" s="21" t="s">
+        <v>642</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J52" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J53" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>650</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>28</v>
@@ -12249,30 +12207,30 @@
         <v>27</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>28</v>
@@ -12281,30 +12239,30 @@
         <v>22</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>644</v>
+      <c r="A56" s="9" t="s">
+        <v>640</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>28</v>
@@ -12313,27 +12271,27 @@
         <v>22</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>667</v>
+      <c r="A57" s="9" t="s">
+        <v>663</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>14</v>
@@ -12342,30 +12300,30 @@
         <v>8</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>652</v>
+      <c r="A58" s="9" t="s">
+        <v>648</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>28</v>
@@ -12374,30 +12332,30 @@
         <v>27</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J58" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" t="s">
-        <v>237</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>28</v>
@@ -12406,30 +12364,30 @@
         <v>22</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J59" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="D60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>28</v>
@@ -12438,21 +12396,21 @@
         <v>22</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E61" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>28</v>
@@ -12461,13 +12419,13 @@
         <v>22</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -12500,10 +12458,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -12526,48 +12484,48 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
@@ -12576,18 +12534,18 @@
         <v>27</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -12596,10 +12554,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -12613,24 +12571,24 @@
         <v>28</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>19</v>
@@ -12645,27 +12603,27 @@
         <v>22</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>28</v>
@@ -12674,18 +12632,18 @@
         <v>35</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -12694,27 +12652,27 @@
         <v>22</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>28</v>
@@ -12723,27 +12681,27 @@
         <v>22</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -12752,56 +12710,56 @@
         <v>27</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -12810,27 +12768,27 @@
         <v>22</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>28</v>
@@ -12839,10 +12797,10 @@
         <v>27</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12850,39 +12808,39 @@
       <c r="B14" s="36"/>
       <c r="C14" s="24"/>
       <c r="D14" s="36" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>263</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>815</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>265</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
@@ -12891,62 +12849,62 @@
         <v>8</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>28</v>
@@ -12955,62 +12913,62 @@
         <v>35</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
+        <v>815</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>820</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>825</v>
-      </c>
       <c r="C19" s="36" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>28</v>
@@ -13019,24 +12977,24 @@
         <v>27</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>19</v>
@@ -13048,24 +13006,24 @@
         <v>21</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>28</v>
@@ -13074,51 +13032,51 @@
         <v>27</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="36" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>28</v>
@@ -13127,30 +13085,30 @@
         <v>35</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>28</v>
@@ -13159,13 +13117,13 @@
         <v>27</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -13173,16 +13131,16 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="23"/>
@@ -13190,51 +13148,51 @@
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>28</v>
@@ -13243,30 +13201,30 @@
         <v>22</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
@@ -13275,30 +13233,30 @@
         <v>22</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>28</v>
@@ -13307,30 +13265,30 @@
         <v>22</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>28</v>
@@ -13339,30 +13297,30 @@
         <v>27</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>28</v>
@@ -13371,30 +13329,30 @@
         <v>27</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F32" s="27" t="s">
         <v>15</v>
@@ -13403,30 +13361,30 @@
         <v>22</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>28</v>
@@ -13435,30 +13393,30 @@
         <v>27</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>15</v>
@@ -13467,30 +13425,30 @@
         <v>22</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>301</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>303</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>28</v>
@@ -13499,62 +13457,62 @@
         <v>27</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>28</v>
@@ -13563,13 +13521,13 @@
         <v>22</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -13577,40 +13535,40 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F38" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F39" s="27" t="s">
         <v>0</v>
@@ -13619,77 +13577,77 @@
         <v>18</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -13697,10 +13655,10 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>28</v>
@@ -13709,10 +13667,10 @@
         <v>27</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J42" s="24"/>
     </row>
@@ -13721,55 +13679,55 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -13777,40 +13735,40 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>28</v>
@@ -13819,13 +13777,13 @@
         <v>22</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -13833,40 +13791,40 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>14</v>
@@ -13875,30 +13833,30 @@
         <v>8</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>28</v>
@@ -13907,13 +13865,13 @@
         <v>22</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -13922,19 +13880,19 @@
     </row>
     <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>28</v>
@@ -13943,45 +13901,45 @@
         <v>22</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -13989,65 +13947,65 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F52" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J52" s="24"/>
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>28</v>
@@ -14056,62 +14014,62 @@
         <v>27</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="B55" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>883</v>
-      </c>
       <c r="C55" s="36" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="B56" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>884</v>
-      </c>
       <c r="C56" s="36" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>14</v>
@@ -14120,30 +14078,30 @@
         <v>8</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>885</v>
-      </c>
       <c r="C57" s="36" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>28</v>
@@ -14152,30 +14110,30 @@
         <v>35</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>28</v>
@@ -14184,13 +14142,13 @@
         <v>27</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -14198,25 +14156,25 @@
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -14224,10 +14182,10 @@
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>28</v>
@@ -14236,62 +14194,62 @@
         <v>27</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>28</v>
@@ -14300,30 +14258,30 @@
         <v>27</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>28</v>
@@ -14332,30 +14290,30 @@
         <v>35</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>28</v>
@@ -14364,30 +14322,30 @@
         <v>35</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -14396,62 +14354,62 @@
         <v>8</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>14</v>
@@ -14460,94 +14418,94 @@
         <v>22</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>28</v>
@@ -14556,62 +14514,62 @@
         <v>35</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D71" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J71" s="24" t="s">
         <v>370</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="J71" s="24" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
+        <v>901</v>
+      </c>
+      <c r="B72" s="36" t="s">
         <v>906</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>911</v>
-      </c>
       <c r="C72" s="36" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -14620,30 +14578,30 @@
         <v>8</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>14</v>
@@ -14652,30 +14610,30 @@
         <v>8</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F74" s="26" t="s">
         <v>28</v>
@@ -14684,21 +14642,21 @@
         <v>27</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="D75" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F75" s="26" t="s">
         <v>28</v>
@@ -14707,30 +14665,30 @@
         <v>22</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>14</v>
@@ -14739,13 +14697,13 @@
         <v>22</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -14753,10 +14711,10 @@
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F77" s="26" t="s">
         <v>28</v>
@@ -14765,13 +14723,13 @@
         <v>22</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -14779,10 +14737,10 @@
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="36" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>28</v>
@@ -14791,10 +14749,10 @@
         <v>27</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J78" s="24"/>
     </row>
@@ -14803,10 +14761,10 @@
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="36" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F79" s="26" t="s">
         <v>28</v>
@@ -14815,28 +14773,28 @@
         <v>8</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F80" s="26" t="s">
         <v>28</v>
@@ -14845,30 +14803,30 @@
         <v>27</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F81" s="26" t="s">
         <v>28</v>
@@ -14877,30 +14835,30 @@
         <v>27</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F82" s="26" t="s">
         <v>28</v>
@@ -14909,30 +14867,30 @@
         <v>22</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F83" s="26" t="s">
         <v>28</v>
@@ -14941,30 +14899,30 @@
         <v>27</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F84" s="26" t="s">
         <v>28</v>
@@ -14973,30 +14931,30 @@
         <v>27</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J84" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>28</v>
@@ -15005,30 +14963,30 @@
         <v>22</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F86" s="26" t="s">
         <v>28</v>
@@ -15037,30 +14995,30 @@
         <v>27</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>28</v>
@@ -15069,30 +15027,30 @@
         <v>35</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>28</v>
@@ -15101,30 +15059,30 @@
         <v>35</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F89" s="26" t="s">
         <v>28</v>
@@ -15133,13 +15091,13 @@
         <v>27</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15147,10 +15105,10 @@
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>28</v>
@@ -15159,30 +15117,30 @@
         <v>27</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F91" s="26" t="s">
         <v>28</v>
@@ -15191,13 +15149,13 @@
         <v>27</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -15205,40 +15163,40 @@
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J92" s="24"/>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F93" s="26" t="s">
         <v>28</v>
@@ -15247,13 +15205,13 @@
         <v>27</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -15261,72 +15219,72 @@
       <c r="B94" s="36"/>
       <c r="C94" s="24"/>
       <c r="D94" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F94" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F95" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F96" s="26" t="s">
         <v>28</v>
@@ -15335,30 +15293,30 @@
         <v>27</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -15367,62 +15325,62 @@
         <v>8</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F98" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>28</v>
@@ -15431,56 +15389,56 @@
         <v>22</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F100" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J100" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>44</v>
@@ -15492,62 +15450,62 @@
         <v>28</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F102" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>45</v>
@@ -15556,33 +15514,33 @@
         <v>28</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>15</v>
@@ -15591,30 +15549,30 @@
         <v>22</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F105" s="24" t="s">
         <v>28</v>
@@ -15623,30 +15581,30 @@
         <v>35</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F106" s="24" t="s">
         <v>28</v>
@@ -15655,30 +15613,30 @@
         <v>27</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I106" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
+        <v>975</v>
+      </c>
+      <c r="B107" s="36" t="s">
         <v>980</v>
       </c>
-      <c r="B107" s="36" t="s">
-        <v>985</v>
-      </c>
       <c r="C107" s="36" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F107" s="26" t="s">
         <v>15</v>
@@ -15687,13 +15645,13 @@
         <v>22</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J107" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -15701,87 +15659,87 @@
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
       <c r="D108" s="36" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F108" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H108" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J108" s="24"/>
     </row>
     <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F109" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I109" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F110" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J110" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -15794,8 +15752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15815,10 +15773,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -15841,19 +15799,19 @@
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -15863,24 +15821,24 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>28</v>
@@ -15890,24 +15848,24 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -15917,111 +15875,111 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -16031,40 +15989,40 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16072,10 +16030,10 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -16089,32 +16047,32 @@
     </row>
     <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16122,16 +16080,16 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
@@ -16142,16 +16100,16 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -16159,49 +16117,49 @@
     </row>
     <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>28</v>
@@ -16211,27 +16169,27 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>28</v>
@@ -16241,27 +16199,27 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>28</v>
@@ -16271,87 +16229,87 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>28</v>
@@ -16361,10 +16319,10 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">

--- a/Test Data Per Error Type - Joey Tagged.xlsx
+++ b/Test Data Per Error Type - Joey Tagged.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10608,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12438,8 +12438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15752,8 +15752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data Per Error Type - Joey Tagged.xlsx
+++ b/Test Data Per Error Type - Joey Tagged.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1089">
   <si>
     <t>Insertion</t>
   </si>
@@ -731,12 +731,6 @@
     <t>Chua, Nicole</t>
   </si>
   <si>
-    <t>pinaka-edukado</t>
-  </si>
-  <si>
-    <t>pinakaedukado</t>
-  </si>
-  <si>
     <t>Camille 1</t>
   </si>
   <si>
@@ -3551,10 +3545,6 @@
   </si>
   <si>
     <t>Ang Malawi ay isa sa pinaka-okupadong bansa sa Sub-Saharan Africa .</t>
-  </si>
-  <si>
-    <t>Sa_loob_ng labangan na ito , namamalagi ang Lake Malawi , ito ang ikatlo sa pinakamalaking lawa sa Africa , at ika-sampu sa 
-mundo ,</t>
   </si>
   <si>
     <t>Kamakaylan lamang hinikayat ng Persidente ng Malawi ang_mga magsasaka na ituring ang ibang tumutubo na pananim .</t>
@@ -8638,6 +8628,10 @@
   </si>
   <si>
     <t>puting</t>
+  </si>
+  <si>
+    <t>Sa_loob_ng labangan na ito , namamalagi ang Lake Malawi , ito ang ikatlo sa pinakamalaking lawa sa Africa , at ika sampu sa 
+mundo ,</t>
   </si>
 </sst>
 </file>
@@ -9184,7 +9178,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9229,13 +9223,13 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -9256,13 +9250,13 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -9283,13 +9277,13 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -9310,13 +9304,13 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -9337,13 +9331,13 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -9364,13 +9358,13 @@
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -9391,13 +9385,13 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -9418,13 +9412,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -9445,13 +9439,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
@@ -9472,13 +9466,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -9499,13 +9493,13 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
@@ -9547,13 +9541,13 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
@@ -9574,13 +9568,13 @@
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -9625,10 +9619,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9649,13 +9643,13 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
@@ -9676,13 +9670,13 @@
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>53</v>
@@ -9724,13 +9718,13 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -9793,13 +9787,13 @@
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>46</v>
@@ -9820,13 +9814,13 @@
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>64</v>
@@ -9847,13 +9841,13 @@
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>66</v>
@@ -9874,13 +9868,13 @@
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>68</v>
@@ -9901,13 +9895,13 @@
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>70</v>
@@ -9928,13 +9922,13 @@
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>42</v>
@@ -9955,13 +9949,13 @@
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>72</v>
@@ -9982,13 +9976,13 @@
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>74</v>
@@ -10009,13 +10003,13 @@
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>76</v>
@@ -10039,29 +10033,29 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
@@ -10082,13 +10076,13 @@
     </row>
     <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>80</v>
@@ -10130,13 +10124,13 @@
     </row>
     <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>84</v>
@@ -10169,20 +10163,20 @@
         <v>21</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>86</v>
@@ -10206,16 +10200,16 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="5"/>
@@ -10225,10 +10219,10 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -10242,7 +10236,7 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
@@ -10254,13 +10248,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>89</v>
@@ -10281,13 +10275,13 @@
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>91</v>
@@ -10308,13 +10302,13 @@
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>94</v>
@@ -10343,10 +10337,10 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>28</v>
@@ -10367,7 +10361,7 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
@@ -10385,10 +10379,10 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>28</v>
@@ -10406,13 +10400,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>96</v>
@@ -10433,13 +10427,13 @@
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>98</v>
@@ -10481,13 +10475,13 @@
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>102</v>
@@ -10511,10 +10505,10 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>15</v>
@@ -10530,7 +10524,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>99</v>
@@ -10546,13 +10540,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>42</v>
@@ -10573,13 +10567,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>45</v>
@@ -10608,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10656,13 +10650,13 @@
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>106</v>
@@ -10688,13 +10682,13 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>109</v>
@@ -10720,13 +10714,13 @@
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>112</v>
@@ -10750,13 +10744,13 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -10780,7 +10774,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -10789,20 +10783,20 @@
         <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>114</v>
@@ -10823,13 +10817,13 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>118</v>
@@ -10850,13 +10844,13 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>120</v>
@@ -10877,13 +10871,13 @@
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>122</v>
@@ -10904,13 +10898,13 @@
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>124</v>
@@ -10931,13 +10925,13 @@
     </row>
     <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>126</v>
@@ -10958,13 +10952,13 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>129</v>
@@ -10985,13 +10979,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>130</v>
@@ -11012,13 +11006,13 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>133</v>
@@ -11047,10 +11041,10 @@
         <v>136</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>137</v>
@@ -11076,13 +11070,13 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>139</v>
@@ -11108,13 +11102,13 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>141</v>
@@ -11140,13 +11134,13 @@
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>143</v>
@@ -11175,10 +11169,10 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>28</v>
@@ -11195,16 +11189,16 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9"/>
@@ -11212,13 +11206,13 @@
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>145</v>
@@ -11270,13 +11264,13 @@
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>149</v>
@@ -11302,13 +11296,13 @@
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>151</v>
@@ -11334,13 +11328,13 @@
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>153</v>
@@ -11366,13 +11360,13 @@
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>155</v>
@@ -11401,10 +11395,10 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
@@ -11418,13 +11412,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>157</v>
@@ -11450,13 +11444,13 @@
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>159</v>
@@ -11482,13 +11476,13 @@
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>161</v>
@@ -11566,13 +11560,13 @@
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>167</v>
@@ -11598,13 +11592,13 @@
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>169</v>
@@ -11630,13 +11624,13 @@
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>612</v>
+        <v>1088</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>171</v>
@@ -11662,13 +11656,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>173</v>
@@ -11694,13 +11688,13 @@
     </row>
     <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>175</v>
@@ -11726,13 +11720,13 @@
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>177</v>
@@ -11758,13 +11752,13 @@
     </row>
     <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>179</v>
@@ -11788,13 +11782,13 @@
     </row>
     <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>181</v>
@@ -11818,13 +11812,13 @@
     </row>
     <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>183</v>
@@ -11896,13 +11890,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>189</v>
@@ -11930,13 +11924,13 @@
     </row>
     <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>191</v>
@@ -11962,13 +11956,13 @@
     </row>
     <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D47" t="s">
         <v>193</v>
@@ -11994,13 +11988,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B48" t="s">
         <v>633</v>
       </c>
-      <c r="B48" t="s">
-        <v>636</v>
-      </c>
       <c r="C48" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>195</v>
@@ -12026,13 +12020,13 @@
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>197</v>
@@ -12058,13 +12052,13 @@
     </row>
     <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>207</v>
@@ -12090,13 +12084,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>212</v>
@@ -12122,13 +12116,13 @@
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>214</v>
@@ -12154,13 +12148,13 @@
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>217</v>
@@ -12186,13 +12180,13 @@
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>220</v>
@@ -12221,10 +12215,10 @@
         <v>222</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>223</v>
@@ -12250,13 +12244,13 @@
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>229</v>
@@ -12279,13 +12273,13 @@
     </row>
     <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>226</v>
@@ -12311,13 +12305,13 @@
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>231</v>
@@ -12343,13 +12337,13 @@
     </row>
     <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D59" t="s">
         <v>234</v>
@@ -12375,19 +12369,19 @@
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D60" t="s">
         <v>656</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D60" t="s">
-        <v>237</v>
-      </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>655</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>28</v>
@@ -12406,12 +12400,6 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>659</v>
-      </c>
-      <c r="E61" t="s">
-        <v>658</v>
-      </c>
       <c r="F61" s="27" t="s">
         <v>28</v>
       </c>
@@ -12438,8 +12426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12461,7 +12449,7 @@
         <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -12484,19 +12472,19 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -12505,27 +12493,27 @@
         <v>93</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
@@ -12534,18 +12522,18 @@
         <v>27</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -12554,10 +12542,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -12574,21 +12562,21 @@
         <v>63</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>19</v>
@@ -12603,27 +12591,27 @@
         <v>22</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>28</v>
@@ -12632,18 +12620,18 @@
         <v>35</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -12652,27 +12640,27 @@
         <v>22</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>28</v>
@@ -12681,27 +12669,27 @@
         <v>22</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>801</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>804</v>
-      </c>
       <c r="C10" s="36" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -12710,27 +12698,27 @@
         <v>27</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>805</v>
-      </c>
       <c r="C11" s="36" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -12739,27 +12727,27 @@
         <v>93</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -12768,27 +12756,27 @@
         <v>22</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>28</v>
@@ -12797,10 +12785,10 @@
         <v>27</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12808,10 +12796,10 @@
       <c r="B14" s="36"/>
       <c r="C14" s="24"/>
       <c r="D14" s="36" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
@@ -12820,27 +12808,27 @@
         <v>93</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>810</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>263</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
@@ -12852,27 +12840,27 @@
         <v>111</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>28</v>
@@ -12884,27 +12872,27 @@
         <v>111</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>817</v>
-      </c>
       <c r="C17" s="36" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>28</v>
@@ -12916,27 +12904,27 @@
         <v>111</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
@@ -12948,27 +12936,27 @@
         <v>111</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>28</v>
@@ -12980,21 +12968,21 @@
         <v>111</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>19</v>
@@ -13012,18 +13000,18 @@
         <v>111</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>28</v>
@@ -13035,18 +13023,18 @@
         <v>111</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="36" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>15</v>
@@ -13058,25 +13046,25 @@
         <v>111</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>28</v>
@@ -13088,27 +13076,27 @@
         <v>111</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>28</v>
@@ -13120,10 +13108,10 @@
         <v>111</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -13131,16 +13119,16 @@
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="23"/>
@@ -13148,19 +13136,19 @@
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>28</v>
@@ -13172,27 +13160,27 @@
         <v>111</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>28</v>
@@ -13204,27 +13192,27 @@
         <v>111</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
@@ -13236,27 +13224,27 @@
         <v>111</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>28</v>
@@ -13268,27 +13256,27 @@
         <v>111</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>28</v>
@@ -13300,27 +13288,27 @@
         <v>111</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>28</v>
@@ -13332,27 +13320,27 @@
         <v>111</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>832</v>
-      </c>
       <c r="C32" s="36" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F32" s="27" t="s">
         <v>15</v>
@@ -13364,27 +13352,27 @@
         <v>111</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>28</v>
@@ -13396,27 +13384,27 @@
         <v>111</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>15</v>
@@ -13428,27 +13416,27 @@
         <v>111</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>834</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>28</v>
@@ -13460,27 +13448,27 @@
         <v>111</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>28</v>
@@ -13492,27 +13480,27 @@
         <v>111</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>28</v>
@@ -13524,10 +13512,10 @@
         <v>111</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -13535,40 +13523,40 @@
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F38" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H38" s="36" t="s">
         <v>111</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F39" s="27" t="s">
         <v>0</v>
@@ -13577,30 +13565,30 @@
         <v>18</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
@@ -13609,30 +13597,30 @@
         <v>93</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>21</v>
@@ -13641,13 +13629,13 @@
         <v>93</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -13655,10 +13643,10 @@
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>28</v>
@@ -13667,10 +13655,10 @@
         <v>27</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J42" s="24"/>
     </row>
@@ -13679,10 +13667,10 @@
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>28</v>
@@ -13691,28 +13679,28 @@
         <v>63</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>28</v>
@@ -13721,13 +13709,13 @@
         <v>63</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -13735,10 +13723,10 @@
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>28</v>
@@ -13747,28 +13735,28 @@
         <v>63</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>28</v>
@@ -13777,13 +13765,13 @@
         <v>22</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -13791,10 +13779,10 @@
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>28</v>
@@ -13803,28 +13791,28 @@
         <v>63</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>883</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>886</v>
-      </c>
       <c r="C48" s="36" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>14</v>
@@ -13833,30 +13821,30 @@
         <v>8</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>28</v>
@@ -13865,13 +13853,13 @@
         <v>22</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -13880,16 +13868,16 @@
     </row>
     <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>101</v>
@@ -13901,30 +13889,30 @@
         <v>22</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>28</v>
@@ -13933,13 +13921,13 @@
         <v>63</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -13947,10 +13935,10 @@
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F52" s="26" t="s">
         <v>28</v>
@@ -13959,28 +13947,28 @@
         <v>63</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J52" s="24"/>
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>28</v>
@@ -13989,23 +13977,23 @@
         <v>63</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>28</v>
@@ -14014,30 +14002,30 @@
         <v>27</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>28</v>
@@ -14046,30 +14034,30 @@
         <v>63</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>14</v>
@@ -14078,30 +14066,30 @@
         <v>8</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>28</v>
@@ -14110,30 +14098,30 @@
         <v>35</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>28</v>
@@ -14142,13 +14130,13 @@
         <v>27</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -14156,10 +14144,10 @@
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>21</v>
@@ -14168,13 +14156,13 @@
         <v>93</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -14182,10 +14170,10 @@
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>28</v>
@@ -14194,30 +14182,30 @@
         <v>27</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>21</v>
@@ -14226,30 +14214,30 @@
         <v>93</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>28</v>
@@ -14258,30 +14246,30 @@
         <v>27</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>28</v>
@@ -14290,30 +14278,30 @@
         <v>35</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>28</v>
@@ -14322,30 +14310,30 @@
         <v>35</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -14354,30 +14342,30 @@
         <v>8</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>14</v>
@@ -14386,30 +14374,30 @@
         <v>93</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>14</v>
@@ -14418,30 +14406,30 @@
         <v>22</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -14450,30 +14438,30 @@
         <v>93</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>28</v>
@@ -14482,30 +14470,30 @@
         <v>63</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>28</v>
@@ -14514,30 +14502,30 @@
         <v>35</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F71" s="29" t="s">
         <v>116</v>
@@ -14546,30 +14534,30 @@
         <v>132</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -14578,30 +14566,30 @@
         <v>8</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
+        <v>899</v>
+      </c>
+      <c r="B73" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="B73" s="36" t="s">
-        <v>905</v>
-      </c>
       <c r="C73" s="36" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>14</v>
@@ -14610,30 +14598,30 @@
         <v>8</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F74" s="26" t="s">
         <v>28</v>
@@ -14642,21 +14630,21 @@
         <v>27</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="D75" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F75" s="26" t="s">
         <v>28</v>
@@ -14665,30 +14653,30 @@
         <v>22</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>14</v>
@@ -14697,13 +14685,13 @@
         <v>22</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -14711,10 +14699,10 @@
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F77" s="26" t="s">
         <v>28</v>
@@ -14723,13 +14711,13 @@
         <v>22</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -14737,10 +14725,10 @@
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="36" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>28</v>
@@ -14749,10 +14737,10 @@
         <v>27</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J78" s="24"/>
     </row>
@@ -14761,10 +14749,10 @@
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="36" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F79" s="26" t="s">
         <v>28</v>
@@ -14773,28 +14761,28 @@
         <v>8</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F80" s="26" t="s">
         <v>28</v>
@@ -14803,30 +14791,30 @@
         <v>27</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F81" s="26" t="s">
         <v>28</v>
@@ -14835,30 +14823,30 @@
         <v>27</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F82" s="26" t="s">
         <v>28</v>
@@ -14867,30 +14855,30 @@
         <v>22</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F83" s="26" t="s">
         <v>28</v>
@@ -14899,30 +14887,30 @@
         <v>27</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F84" s="26" t="s">
         <v>28</v>
@@ -14931,30 +14919,30 @@
         <v>27</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J84" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>28</v>
@@ -14963,30 +14951,30 @@
         <v>22</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F86" s="26" t="s">
         <v>28</v>
@@ -14995,30 +14983,30 @@
         <v>27</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
+        <v>927</v>
+      </c>
+      <c r="B87" s="36" t="s">
         <v>930</v>
       </c>
-      <c r="B87" s="36" t="s">
-        <v>933</v>
-      </c>
       <c r="C87" s="36" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>28</v>
@@ -15027,30 +15015,30 @@
         <v>35</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>28</v>
@@ -15059,30 +15047,30 @@
         <v>35</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F89" s="26" t="s">
         <v>28</v>
@@ -15091,13 +15079,13 @@
         <v>27</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15105,10 +15093,10 @@
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>28</v>
@@ -15117,30 +15105,30 @@
         <v>27</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F91" s="26" t="s">
         <v>28</v>
@@ -15149,13 +15137,13 @@
         <v>27</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -15163,10 +15151,10 @@
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>28</v>
@@ -15175,28 +15163,28 @@
         <v>63</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J92" s="24"/>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F93" s="26" t="s">
         <v>28</v>
@@ -15205,13 +15193,13 @@
         <v>27</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -15231,28 +15219,28 @@
         <v>93</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F95" s="26" t="s">
         <v>28</v>
@@ -15261,30 +15249,30 @@
         <v>63</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F96" s="26" t="s">
         <v>28</v>
@@ -15293,30 +15281,30 @@
         <v>27</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>14</v>
@@ -15325,24 +15313,24 @@
         <v>8</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>91</v>
@@ -15357,30 +15345,30 @@
         <v>93</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>28</v>
@@ -15389,30 +15377,30 @@
         <v>22</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F100" s="26" t="s">
         <v>21</v>
@@ -15421,24 +15409,24 @@
         <v>93</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J100" s="30" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>44</v>
@@ -15453,30 +15441,30 @@
         <v>63</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F102" s="26" t="s">
         <v>21</v>
@@ -15485,27 +15473,27 @@
         <v>93</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>45</v>
@@ -15517,30 +15505,30 @@
         <v>63</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>15</v>
@@ -15549,30 +15537,30 @@
         <v>22</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F105" s="24" t="s">
         <v>28</v>
@@ -15581,30 +15569,30 @@
         <v>35</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F106" s="24" t="s">
         <v>28</v>
@@ -15613,30 +15601,30 @@
         <v>27</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I106" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F107" s="26" t="s">
         <v>15</v>
@@ -15645,13 +15633,13 @@
         <v>22</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J107" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -15659,40 +15647,40 @@
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
       <c r="D108" s="36" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F108" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H108" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J108" s="24"/>
     </row>
     <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F109" s="26" t="s">
         <v>28</v>
@@ -15701,30 +15689,30 @@
         <v>63</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I109" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F110" s="27" t="s">
         <v>15</v>
@@ -15733,13 +15721,13 @@
         <v>93</v>
       </c>
       <c r="H110" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J110" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -15752,7 +15740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -15776,7 +15764,7 @@
         <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -15799,13 +15787,13 @@
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>122</v>
@@ -15821,24 +15809,24 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>28</v>
@@ -15848,18 +15836,18 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>124</v>
@@ -15875,21 +15863,21 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>131</v>
@@ -15902,24 +15890,24 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -15929,27 +15917,27 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>28</v>
@@ -15959,27 +15947,27 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -15989,27 +15977,27 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -16019,10 +16007,10 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16030,10 +16018,10 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -16047,19 +16035,19 @@
     </row>
     <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -16069,10 +16057,10 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -16080,16 +16068,16 @@
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
@@ -16100,16 +16088,16 @@
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
+        <v>776</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>780</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>782</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
@@ -16117,19 +16105,19 @@
     </row>
     <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
@@ -16139,27 +16127,27 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>28</v>
@@ -16169,27 +16157,27 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>28</v>
@@ -16199,27 +16187,27 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>28</v>
@@ -16229,27 +16217,27 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
@@ -16259,27 +16247,27 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>28</v>
@@ -16289,27 +16277,27 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>28</v>
@@ -16319,10 +16307,10 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">

--- a/Test Data Per Error Type - Joey Tagged.xlsx
+++ b/Test Data Per Error Type - Joey Tagged.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8931,7 +8931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8966,7 +8966,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9181,18 +9181,18 @@
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="70.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="3" width="70.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="63" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>476</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>478</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>479</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>481</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>488</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>487</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>491</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>667</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>492</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9539,7 +9539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>497</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>498</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9614,7 +9614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>499</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>502</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -9716,7 +9716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>503</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -9764,7 +9764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9785,7 +9785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>505</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>507</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>508</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>525</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>517</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10047,7 +10047,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>555</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>555</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -10122,7 +10122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>526</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -10168,7 +10168,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>514</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -10214,7 +10214,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -10231,7 +10231,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -10246,7 +10246,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>513</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>529</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>530</v>
       </c>
@@ -10332,7 +10332,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -10356,7 +10356,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -10374,7 +10374,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -10398,7 +10398,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>531</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>693</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -10473,7 +10473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>550</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -10519,7 +10519,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -10538,7 +10538,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>515</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>516</v>
       </c>
@@ -10606,20 +10606,20 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="103.140625" customWidth="1"/>
-    <col min="2" max="3" width="70.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.109375" customWidth="1"/>
+    <col min="2" max="3" width="70.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>565</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>566</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>567</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>568</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10788,7 +10788,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>569</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>570</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>571</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>702</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>705</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>707</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>582</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>583</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>593</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>136</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>598</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>599</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>600</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -11184,7 +11184,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -11204,7 +11204,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>587</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="1"/>
@@ -11262,7 +11262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>590</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>591</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>592</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>605</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -11410,7 +11410,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>601</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>624</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>621</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="31"/>
       <c r="C32" s="1"/>
@@ -11532,7 +11532,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="31"/>
       <c r="C33" s="1"/>
@@ -11558,7 +11558,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>613</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>615</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>1088</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>609</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>610</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>611</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>612</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>625</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>628</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="32"/>
       <c r="C43" s="19"/>
@@ -11864,7 +11864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="31"/>
       <c r="C44" s="1"/>
@@ -11888,7 +11888,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>631</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>650</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>651</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>630</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>647</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>638</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>634</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>639</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>641</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>742</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>222</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>637</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>660</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>645</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>659</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>653</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F61" s="27" t="s">
         <v>28</v>
       </c>
@@ -12426,22 +12426,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="70.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="3" width="70.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>752</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>790</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="24" t="s">
         <v>243</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="24" t="s">
         <v>44</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>794</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>800</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="24" t="s">
         <v>247</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>797</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>798</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>799</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>803</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>1008</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="36"/>
       <c r="C14" s="24"/>
@@ -12814,7 +12814,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>259</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>806</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>811</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>816</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>812</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>813</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D21" s="24" t="s">
         <v>271</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D22" s="36" t="s">
         <v>818</v>
       </c>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>838</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>843</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -13134,7 +13134,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>836</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>837</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>821</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>822</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>827</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>1024</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>826</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>1028</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>830</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>297</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>834</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>852</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>835</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
         <v>857</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>847</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
         <v>848</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
         <v>849</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
         <v>880</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
         <v>878</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
         <v>879</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
         <v>881</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
         <v>882</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="24" t="s">
@@ -14011,7 +14011,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
         <v>870</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
         <v>871</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
         <v>872</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
         <v>873</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -14165,7 +14165,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -14191,7 +14191,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="36" t="s">
         <v>890</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="36" t="s">
         <v>911</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="36" t="s">
         <v>891</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
         <v>892</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="36" t="s">
         <v>917</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="36" t="s">
         <v>893</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="36" t="s">
         <v>894</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="36" t="s">
         <v>896</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
         <v>919</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
         <v>920</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="36" t="s">
         <v>922</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="36" t="s">
         <v>898</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="36" t="s">
         <v>899</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="36" t="s">
         <v>901</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D75" s="24" t="s">
         <v>376</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
         <v>907</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -14720,7 +14720,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -14744,7 +14744,7 @@
       </c>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="36" t="s">
         <v>925</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="36" t="s">
         <v>924</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="36" t="s">
         <v>950</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="36" t="s">
         <v>926</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="36" t="s">
         <v>948</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="36" t="s">
         <v>932</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="36" t="s">
         <v>928</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="36" t="s">
         <v>927</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="36" t="s">
         <v>936</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="36" t="s">
         <v>933</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -15114,7 +15114,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="36" t="s">
         <v>962</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -15170,7 +15170,7 @@
       </c>
       <c r="J92" s="24"/>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="36" t="s">
         <v>938</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="36"/>
       <c r="C94" s="24"/>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="36" t="s">
         <v>942</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
         <v>945</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
         <v>953</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
         <v>958</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
         <v>963</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
         <v>957</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
         <v>956</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
         <v>955</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
         <v>954</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="36" t="s">
         <v>961</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="36" t="s">
         <v>971</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="36" t="s">
         <v>970</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
         <v>972</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="J108" s="24"/>
     </row>
-    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="36" t="s">
         <v>973</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="36" t="s">
         <v>974</v>
       </c>
@@ -15744,19 +15744,19 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="59.85546875" customWidth="1"/>
+    <col min="1" max="3" width="59.88671875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>985</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>987</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>705</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>754</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>755</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>756</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>993</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>757</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -16033,7 +16033,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>772</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -16083,7 +16083,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -16103,7 +16103,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>758</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>759</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>760</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>788</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>761</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>762</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>787</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16324,7 +16324,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -16335,7 +16335,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -16346,7 +16346,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -16357,7 +16357,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -16368,7 +16368,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -16379,7 +16379,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -16390,7 +16390,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -16401,7 +16401,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16412,7 +16412,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16423,7 +16423,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16434,7 +16434,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -16445,7 +16445,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16456,7 +16456,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -16467,7 +16467,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -16478,7 +16478,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -16489,7 +16489,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16500,7 +16500,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -16511,7 +16511,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -16522,7 +16522,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -16533,7 +16533,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -16544,7 +16544,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -16555,7 +16555,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -16566,7 +16566,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -16577,7 +16577,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -16588,7 +16588,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -16599,7 +16599,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -16610,7 +16610,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -16621,7 +16621,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -16632,7 +16632,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>

--- a/Test Data Per Error Type - Joey Tagged.xlsx
+++ b/Test Data Per Error Type - Joey Tagged.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2337,19 +2337,40 @@
     <t>masaya</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CCT PRSP_CCP JJD_CCP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCR VBTF</t>
+    <t>namakan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RBW_CCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RBW PMC VBTF PRS PRO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
     </r>
     <r>
       <rPr>
@@ -2370,38 +2391,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RBD NNC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PRS CCB NNC CCB PRI_CCP NNC CCP JJD CCA </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VBTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CCP VBS PRS_LM RBT CCP RBD PRS_CCP </t>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CCT PRI PRI_CCP </t>
     </r>
     <r>
       <rPr>
@@ -2422,95 +2422,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PMP</t>
-    </r>
-  </si>
-  <si>
-    <t>namakan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RBW_CCP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RBW PMC VBTF PRS PRO </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PMC </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CCT PRI PRI_CCP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> NNC PMP</t>
     </r>
   </si>
@@ -2576,32 +2487,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>RBD RBI PRP RBW DTC PRSP_CCP NNC PMP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VBTR PRS CCT NNC PRS_CCP VBAF </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> VBH JJD CCP NNC PMP</t>
     </r>
   </si>
   <si>
@@ -2862,9 +2747,6 @@
     <t>Gamit naman ang " Turing test " , nakagawa siya ng makabuluhan at kontrobersyal na kontribusyon sa debate sa posibilidad ng pagkakaroon ng sariling isip ng_mga computer .</t>
   </si>
   <si>
-    <t>Pinag-aralan din nila Larsson at Moe ang iba'tibang palitan ng mensahe noong kampanya ng taong 2010 sa bansang Sweden .</t>
-  </si>
-  <si>
     <t>Subalit , mahirap at sadyang napakabagal gawin kung susuriin nang mano-mano ( Kent at McCarthy 33 ) ang_mga tweet .</t>
   </si>
   <si>
@@ -3025,32 +2907,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> PMP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VBAF DTC NNP NNP NNP CDB NNP FW CCA DTCP VB_TR_AF CCP NNC RBW_CCP CDB CCA VBOF PRO CCB </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FW CCB FW FW PMP</t>
     </r>
   </si>
   <si>
@@ -4820,9 +4676,6 @@
 edukado at ganda lugar sa mundo</t>
   </si>
   <si>
-    <t>aral din nila Larsson at Moe ang iba'tiba palit ng mensahe noong kampanya ng taong 2010 sa bansa Sweden .</t>
-  </si>
-  <si>
     <t>Gamit naman ang " Turing test " , gawa siya ng kabuluhan at kontrobersyal na kontribusyon sa debate sa posibilidad ng mayroon ng sarili isip ng_mga computer .</t>
   </si>
   <si>
@@ -8632,6 +8485,107 @@
   <si>
     <t>Sa_loob_ng labangan na ito , namamalagi ang Lake Malawi , ito ang ikatlo sa pinakamalaking lawa sa Africa , at ika sampu sa 
 mundo ,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CCT PRSP_CCP JJD_CCP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? VBTF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PMC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RBD NNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PRS CCB NNC CCB PRI_CCP NNC CCP JJD CCA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VBTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCP VBS PRS_LM RBT CCP RBD PRS_CCP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PMP</t>
+    </r>
+  </si>
+  <si>
+    <t>VBTR PRS CCT NNC PRS_CCP VBAF CCB VBH JJD CCP NNC PMP</t>
+  </si>
+  <si>
+    <t>VBAF DTC NNP NNP NNP CDB NNP FW CCA DTCP VB_TR_AF CCP NNC RBW_CCP CDB CCA VBOF PRO CCB ? FW CCB FW FW PMP</t>
+  </si>
+  <si>
+    <t>Pinag-aralan din nila Larsson at Moe ang iba'tibang palitan ng mensahe noong kampanya nang taong 2010 sa bansang Sweden .</t>
+  </si>
+  <si>
+    <t>aral din nila Larsson at Moe ang iba'tiba palit ng mensahe nang kampanya ng taong 2010 sa bansa Sweden .</t>
   </si>
 </sst>
 </file>
@@ -8765,7 +8719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8871,6 +8825,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8931,7 +8895,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8966,7 +8930,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9177,18 +9141,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="70.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9221,7 +9185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>476</v>
       </c>
@@ -9229,7 +9193,7 @@
         <v>484</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -9248,7 +9212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>477</v>
       </c>
@@ -9256,7 +9220,7 @@
         <v>483</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -9275,7 +9239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>478</v>
       </c>
@@ -9283,7 +9247,7 @@
         <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -9302,7 +9266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>479</v>
       </c>
@@ -9310,7 +9274,7 @@
         <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -9329,7 +9293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
@@ -9337,7 +9301,7 @@
         <v>485</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
@@ -9356,7 +9320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>481</v>
       </c>
@@ -9364,7 +9328,7 @@
         <v>482</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -9383,7 +9347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>488</v>
       </c>
@@ -9391,7 +9355,7 @@
         <v>486</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -9410,7 +9374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>487</v>
       </c>
@@ -9418,7 +9382,7 @@
         <v>489</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -9437,7 +9401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>491</v>
       </c>
@@ -9445,7 +9409,7 @@
         <v>490</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
@@ -9464,15 +9428,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -9491,7 +9455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>492</v>
       </c>
@@ -9499,7 +9463,7 @@
         <v>493</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
@@ -9518,7 +9482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9539,7 +9503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>497</v>
       </c>
@@ -9547,7 +9511,7 @@
         <v>494</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
@@ -9566,7 +9530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>498</v>
       </c>
@@ -9574,7 +9538,7 @@
         <v>495</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -9593,7 +9557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9614,7 +9578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -9622,7 +9586,7 @@
         <v>496</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -9641,7 +9605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>499</v>
       </c>
@@ -9649,7 +9613,7 @@
         <v>500</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>51</v>
@@ -9668,7 +9632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>502</v>
       </c>
@@ -9676,7 +9640,7 @@
         <v>501</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>53</v>
@@ -9695,7 +9659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -9716,7 +9680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>503</v>
       </c>
@@ -9724,7 +9688,7 @@
         <v>504</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>57</v>
@@ -9743,7 +9707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -9764,7 +9728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9785,7 +9749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>505</v>
       </c>
@@ -9793,7 +9757,7 @@
         <v>506</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>46</v>
@@ -9812,7 +9776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>507</v>
       </c>
@@ -9820,7 +9784,7 @@
         <v>518</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>64</v>
@@ -9839,7 +9803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>508</v>
       </c>
@@ -9847,7 +9811,7 @@
         <v>519</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>66</v>
@@ -9866,7 +9830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
@@ -9874,7 +9838,7 @@
         <v>520</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>68</v>
@@ -9893,7 +9857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
@@ -9901,7 +9865,7 @@
         <v>521</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>70</v>
@@ -9920,7 +9884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>511</v>
       </c>
@@ -9928,7 +9892,7 @@
         <v>522</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>42</v>
@@ -9947,7 +9911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>512</v>
       </c>
@@ -9955,7 +9919,7 @@
         <v>523</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>72</v>
@@ -9974,7 +9938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>525</v>
       </c>
@@ -9982,7 +9946,7 @@
         <v>524</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>74</v>
@@ -10001,15 +9965,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>76</v>
@@ -10028,15 +9992,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>21</v>
@@ -10049,13 +10013,13 @@
     </row>
     <row r="34" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
@@ -10076,13 +10040,13 @@
     </row>
     <row r="35" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>80</v>
@@ -10101,7 +10065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -10122,7 +10086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>526</v>
       </c>
@@ -10130,7 +10094,7 @@
         <v>527</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>84</v>
@@ -10149,7 +10113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -10168,15 +10132,15 @@
       <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>514</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>538</v>
+        <v>1084</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>86</v>
@@ -10195,7 +10159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -10214,7 +10178,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -10231,12 +10195,12 @@
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
@@ -10246,7 +10210,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>513</v>
       </c>
@@ -10254,7 +10218,7 @@
         <v>533</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>89</v>
@@ -10273,7 +10237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>529</v>
       </c>
@@ -10281,7 +10245,7 @@
         <v>532</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>91</v>
@@ -10300,15 +10264,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>530</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>94</v>
@@ -10332,15 +10296,15 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>28</v>
@@ -10356,12 +10320,12 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
@@ -10374,15 +10338,15 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>28</v>
@@ -10398,15 +10362,15 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>531</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>96</v>
@@ -10425,15 +10389,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>98</v>
@@ -10452,7 +10416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -10473,15 +10437,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>102</v>
@@ -10500,15 +10464,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>15</v>
@@ -10519,12 +10483,12 @@
       <c r="H53" s="6"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>99</v>
@@ -10538,15 +10502,15 @@
       <c r="H54" s="6"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>515</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>42</v>
@@ -10565,30 +10529,30 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="D56" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="5" t="s">
+      <c r="H56" s="40"/>
+      <c r="I56" s="41" t="s">
         <v>88</v>
       </c>
     </row>
@@ -10602,21 +10566,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.109375" customWidth="1"/>
-    <col min="2" max="3" width="70.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="103.140625" customWidth="1"/>
+    <col min="2" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.3">
@@ -10648,15 +10612,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>106</v>
@@ -10680,47 +10644,47 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:10" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="42" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>112</v>
@@ -10742,21 +10706,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>568</v>
+        <v>1087</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>749</v>
+        <v>1088</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>28</v>
@@ -10769,12 +10733,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -10788,15 +10752,15 @@
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>114</v>
@@ -10815,15 +10779,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>118</v>
@@ -10842,15 +10806,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>120</v>
@@ -10871,13 +10835,13 @@
     </row>
     <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>122</v>
@@ -10898,13 +10862,13 @@
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>124</v>
@@ -10923,15 +10887,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>126</v>
@@ -10950,15 +10914,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>129</v>
@@ -10977,15 +10941,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>130</v>
@@ -11004,15 +10968,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>133</v>
@@ -11036,15 +11000,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>137</v>
@@ -11068,15 +11032,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>139</v>
@@ -11100,15 +11064,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>141</v>
@@ -11132,15 +11096,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>143</v>
@@ -11164,15 +11128,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>28</v>
@@ -11184,7 +11148,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -11204,15 +11168,15 @@
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>145</v>
@@ -11236,7 +11200,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="1"/>
@@ -11262,15 +11226,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>149</v>
@@ -11294,15 +11258,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>151</v>
@@ -11326,15 +11290,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>153</v>
@@ -11358,15 +11322,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>155</v>
@@ -11390,15 +11354,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
@@ -11410,15 +11374,15 @@
       <c r="I28" s="9"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>157</v>
@@ -11442,15 +11406,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>159</v>
@@ -11474,15 +11438,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>161</v>
@@ -11506,7 +11470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="31"/>
       <c r="C32" s="1"/>
@@ -11532,7 +11496,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="31"/>
       <c r="C33" s="1"/>
@@ -11558,15 +11522,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>167</v>
@@ -11590,15 +11554,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>169</v>
@@ -11622,15 +11586,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>171</v>
@@ -11654,15 +11618,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>173</v>
@@ -11686,15 +11650,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>175</v>
@@ -11718,15 +11682,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>177</v>
@@ -11752,13 +11716,13 @@
     </row>
     <row r="40" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>179</v>
@@ -11780,15 +11744,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>181</v>
@@ -11810,15 +11774,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>183</v>
@@ -11840,7 +11804,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="32"/>
       <c r="C43" s="19"/>
@@ -11864,7 +11828,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="31"/>
       <c r="C44" s="1"/>
@@ -11888,15 +11852,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>189</v>
@@ -11924,13 +11888,13 @@
     </row>
     <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>191</v>
@@ -11956,13 +11920,13 @@
     </row>
     <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D47" t="s">
         <v>193</v>
@@ -11986,15 +11950,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B48" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C48" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>195</v>
@@ -12018,15 +11982,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>197</v>
@@ -12050,15 +12014,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>207</v>
@@ -12082,15 +12046,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>212</v>
@@ -12114,15 +12078,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>214</v>
@@ -12146,15 +12110,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>217</v>
@@ -12180,13 +12144,13 @@
     </row>
     <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>220</v>
@@ -12210,15 +12174,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>223</v>
@@ -12242,15 +12206,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>229</v>
@@ -12273,13 +12237,13 @@
     </row>
     <row r="57" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>226</v>
@@ -12303,15 +12267,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>231</v>
@@ -12335,15 +12299,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D59" t="s">
         <v>234</v>
@@ -12367,21 +12331,21 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D60" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E60" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>28</v>
@@ -12399,7 +12363,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F61" s="27" t="s">
         <v>28</v>
       </c>
@@ -12426,18 +12390,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="70.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12470,15 +12434,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>238</v>
@@ -12499,15 +12463,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>241</v>
@@ -12528,7 +12492,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D4" s="24" t="s">
         <v>243</v>
       </c>
@@ -12548,7 +12512,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D5" s="24" t="s">
         <v>44</v>
       </c>
@@ -12568,15 +12532,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>19</v>
@@ -12597,15 +12561,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>245</v>
@@ -12626,7 +12590,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="24" t="s">
         <v>247</v>
       </c>
@@ -12646,15 +12610,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>249</v>
@@ -12675,15 +12639,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>251</v>
@@ -12704,15 +12668,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>253</v>
@@ -12735,13 +12699,13 @@
     </row>
     <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>255</v>
@@ -12762,15 +12726,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>257</v>
@@ -12791,15 +12755,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="36"/>
       <c r="C14" s="24"/>
       <c r="D14" s="36" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
@@ -12814,15 +12778,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>259</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>260</v>
@@ -12848,13 +12812,13 @@
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>262</v>
@@ -12878,15 +12842,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>265</v>
@@ -12910,15 +12874,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>267</v>
@@ -12942,15 +12906,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>812</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>817</v>
-      </c>
       <c r="C19" s="36" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>269</v>
@@ -12976,13 +12940,13 @@
     </row>
     <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>19</v>
@@ -13006,7 +12970,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="D21" s="24" t="s">
         <v>271</v>
       </c>
@@ -13029,12 +12993,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D22" s="36" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>15</v>
@@ -13052,13 +13016,13 @@
     </row>
     <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>273</v>
@@ -13084,13 +13048,13 @@
     </row>
     <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>275</v>
@@ -13114,35 +13078,35 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>277</v>
@@ -13166,15 +13130,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>280</v>
@@ -13198,15 +13162,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>282</v>
@@ -13230,15 +13194,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>284</v>
@@ -13262,15 +13226,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>286</v>
@@ -13294,15 +13258,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>288</v>
@@ -13326,15 +13290,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>290</v>
@@ -13358,15 +13322,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>292</v>
@@ -13390,15 +13354,15 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>295</v>
@@ -13422,15 +13386,15 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>297</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>298</v>
@@ -13454,15 +13418,15 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>300</v>
@@ -13486,15 +13450,15 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>302</v>
@@ -13518,21 +13482,21 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F38" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H38" s="36" t="s">
         <v>111</v>
@@ -13542,15 +13506,15 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>304</v>
@@ -13574,15 +13538,15 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>307</v>
@@ -13608,13 +13572,13 @@
     </row>
     <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>309</v>
@@ -13638,15 +13602,15 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>28</v>
@@ -13662,15 +13626,15 @@
       </c>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>28</v>
@@ -13686,15 +13650,15 @@
       </c>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>311</v>
@@ -13718,15 +13682,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>28</v>
@@ -13742,15 +13706,15 @@
       </c>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>314</v>
@@ -13774,15 +13738,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>28</v>
@@ -13800,13 +13764,13 @@
     </row>
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>317</v>
@@ -13830,15 +13794,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>319</v>
@@ -13866,15 +13830,15 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>321</v>
@@ -13900,13 +13864,13 @@
     </row>
     <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>322</v>
@@ -13930,15 +13894,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F52" s="26" t="s">
         <v>28</v>
@@ -13954,15 +13918,15 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>324</v>
@@ -13986,7 +13950,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="C54" s="38"/>
       <c r="D54" s="24" t="s">
@@ -14011,15 +13975,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
+        <v>865</v>
+      </c>
+      <c r="B55" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>875</v>
-      </c>
       <c r="C55" s="36" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>328</v>
@@ -14043,15 +14007,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
+        <v>866</v>
+      </c>
+      <c r="B56" s="36" t="s">
         <v>871</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>876</v>
-      </c>
       <c r="C56" s="36" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>330</v>
@@ -14075,15 +14039,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
+        <v>867</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>872</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>877</v>
-      </c>
       <c r="C57" s="36" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>333</v>
@@ -14107,15 +14071,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>335</v>
@@ -14139,7 +14103,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -14165,7 +14129,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -14191,15 +14155,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A61" s="36" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>341</v>
@@ -14223,15 +14187,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A62" s="36" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>343</v>
@@ -14255,15 +14219,15 @@
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A63" s="36" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>346</v>
@@ -14287,15 +14251,15 @@
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>348</v>
@@ -14321,13 +14285,13 @@
     </row>
     <row r="65" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="36" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>351</v>
@@ -14351,15 +14315,15 @@
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A66" s="36" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>354</v>
@@ -14383,15 +14347,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A67" s="36" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>357</v>
@@ -14415,15 +14379,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A68" s="36" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>359</v>
@@ -14447,15 +14411,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>361</v>
@@ -14481,13 +14445,13 @@
     </row>
     <row r="70" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>363</v>
@@ -14511,15 +14475,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A71" s="36" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>366</v>
@@ -14543,15 +14507,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A72" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="B72" s="36" t="s">
         <v>898</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>903</v>
-      </c>
       <c r="C72" s="36" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>369</v>
@@ -14575,15 +14539,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A73" s="36" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>371</v>
@@ -14607,15 +14571,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A74" s="36" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>373</v>
@@ -14639,7 +14603,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="D75" s="24" t="s">
         <v>376</v>
       </c>
@@ -14662,15 +14626,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>378</v>
@@ -14694,7 +14658,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -14720,15 +14684,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="36" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>28</v>
@@ -14744,15 +14708,15 @@
       </c>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="36" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F79" s="26" t="s">
         <v>28</v>
@@ -14768,15 +14732,15 @@
       </c>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A80" s="36" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>382</v>
@@ -14800,15 +14764,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A81" s="36" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>384</v>
@@ -14832,15 +14796,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A82" s="36" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>386</v>
@@ -14864,15 +14828,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A83" s="36" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>388</v>
@@ -14896,15 +14860,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A84" s="36" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>391</v>
@@ -14928,15 +14892,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A85" s="36" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>393</v>
@@ -14960,15 +14924,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A86" s="36" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>395</v>
@@ -14992,15 +14956,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A87" s="36" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>397</v>
@@ -15024,15 +14988,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A88" s="36" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>399</v>
@@ -15056,15 +15020,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A89" s="36" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>401</v>
@@ -15088,7 +15052,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -15114,15 +15078,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A91" s="36" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>405</v>
@@ -15146,15 +15110,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>28</v>
@@ -15170,15 +15134,15 @@
       </c>
       <c r="J92" s="24"/>
     </row>
-    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A93" s="36" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>407</v>
@@ -15202,7 +15166,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
       <c r="B94" s="36"/>
       <c r="C94" s="24"/>
@@ -15226,15 +15190,15 @@
       </c>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A95" s="36" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>409</v>
@@ -15258,15 +15222,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>411</v>
@@ -15290,15 +15254,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>414</v>
@@ -15322,15 +15286,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>91</v>
@@ -15354,15 +15318,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>417</v>
@@ -15386,15 +15350,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>419</v>
@@ -15418,15 +15382,15 @@
         <v>421</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>44</v>
@@ -15450,15 +15414,15 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>423</v>
@@ -15482,15 +15446,15 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>425</v>
@@ -15514,15 +15478,15 @@
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>426</v>
@@ -15546,15 +15510,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>429</v>
@@ -15578,15 +15542,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>431</v>
@@ -15610,15 +15574,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="B107" s="36" t="s">
         <v>972</v>
       </c>
-      <c r="B107" s="36" t="s">
-        <v>977</v>
-      </c>
       <c r="C107" s="36" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>434</v>
@@ -15642,21 +15606,21 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
       <c r="D108" s="36" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="F108" s="26" t="s">
         <v>28</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H108" s="36" t="s">
         <v>240</v>
@@ -15666,15 +15630,15 @@
       </c>
       <c r="J108" s="24"/>
     </row>
-    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>436</v>
@@ -15698,15 +15662,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>438</v>
@@ -15744,16 +15708,16 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="59.88671875" customWidth="1"/>
+    <col min="1" max="3" width="59.85546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" x14ac:dyDescent="0.3">
@@ -15764,7 +15728,7 @@
         <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -15787,13 +15751,13 @@
     </row>
     <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>122</v>
@@ -15812,15 +15776,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>442</v>
@@ -15841,13 +15805,13 @@
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>124</v>
@@ -15866,15 +15830,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>444</v>
@@ -15893,15 +15857,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="62.45" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>445</v>
@@ -15923,15 +15887,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>448</v>
@@ -15953,15 +15917,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>451</v>
@@ -15983,15 +15947,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>453</v>
@@ -16013,15 +15977,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -16033,15 +15997,15 @@
       <c r="I10" s="5"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>455</v>
@@ -16063,55 +16027,55 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>457</v>
@@ -16133,15 +16097,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>459</v>
@@ -16163,15 +16127,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>461</v>
@@ -16193,15 +16157,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>463</v>
@@ -16223,15 +16187,15 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>466</v>
@@ -16253,15 +16217,15 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>469</v>
@@ -16283,15 +16247,15 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>472</v>
@@ -16313,7 +16277,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16324,7 +16288,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -16335,7 +16299,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -16346,7 +16310,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -16357,7 +16321,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -16368,7 +16332,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -16379,7 +16343,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -16390,7 +16354,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -16401,7 +16365,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16412,7 +16376,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16423,7 +16387,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16434,7 +16398,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -16445,7 +16409,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16456,7 +16420,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -16467,7 +16431,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -16478,7 +16442,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -16489,7 +16453,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -16500,7 +16464,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -16511,7 +16475,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -16522,7 +16486,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -16533,7 +16497,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -16544,7 +16508,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -16555,7 +16519,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -16566,7 +16530,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -16577,7 +16541,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -16588,7 +16552,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -16599,7 +16563,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -16610,7 +16574,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -16621,7 +16585,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -16632,7 +16596,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
